--- a/data-raw/johnson.douglasfir.xlsx
+++ b/data-raw/johnson.douglasfir.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B24203B-228F-4A02-864E-4F4AEB54DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="14340" windowHeight="9000"/>
+    <workbookView xWindow="3200" yWindow="2160" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +75,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -220,7 +221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,23 +363,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC31" workbookViewId="0">
       <selection activeCell="AN41" sqref="AN41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>190</v>
       </c>
@@ -500,7 +501,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -622,7 +623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>15</v>
       </c>
@@ -744,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7</v>
       </c>
@@ -866,7 +867,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>332</v>
       </c>
@@ -988,7 +989,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>41</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>169</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>375</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>290</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>108</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>379</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>106</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>230</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>226</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>138</v>
       </c>
@@ -2452,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>86</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>392</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>30</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>707</v>
       </c>
@@ -3184,7 +3185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>313</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>26</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>37</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>87</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1012</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>339</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>273</v>
       </c>
@@ -4404,7 +4405,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>275</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>401</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>23</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>458</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>882</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>509</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
